--- a/Supplemental/btc_early_history.xlsx
+++ b/Supplemental/btc_early_history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Isaac/Desktop/Crypto_Analysis-master/Supplemental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7FCCA82-88A9-2745-BBA1-4F131ADC51E8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C3330061-BE34-7245-8D62-3C349B40C9CD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="460" windowWidth="25180" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5518,10 +5518,10 @@
   <dimension ref="A1:N1017"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B881" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="H341" sqref="H341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12696,7 +12696,9 @@
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
       <c r="D340" s="6"/>
-      <c r="E340" s="6"/>
+      <c r="E340" s="6">
+        <v>17</v>
+      </c>
       <c r="F340" s="6">
         <v>0</v>
       </c>
@@ -12709,7 +12711,9 @@
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
       <c r="D341" s="6"/>
-      <c r="E341" s="6"/>
+      <c r="E341" s="6">
+        <v>17</v>
+      </c>
       <c r="F341" s="6">
         <v>0</v>
       </c>
@@ -12722,7 +12726,9 @@
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
       <c r="D342" s="6"/>
-      <c r="E342" s="6"/>
+      <c r="E342" s="6">
+        <v>17</v>
+      </c>
       <c r="F342" s="6">
         <v>0</v>
       </c>
@@ -12735,7 +12741,9 @@
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
       <c r="D343" s="6"/>
-      <c r="E343" s="6"/>
+      <c r="E343" s="6">
+        <v>17</v>
+      </c>
       <c r="F343" s="6">
         <v>0</v>
       </c>
@@ -12748,7 +12756,9 @@
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
       <c r="D344" s="6"/>
-      <c r="E344" s="6"/>
+      <c r="E344" s="6">
+        <v>17</v>
+      </c>
       <c r="F344" s="6">
         <v>0</v>
       </c>
@@ -12761,7 +12771,9 @@
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
       <c r="D345" s="6"/>
-      <c r="E345" s="6"/>
+      <c r="E345" s="6">
+        <v>17</v>
+      </c>
       <c r="F345" s="6">
         <v>0</v>
       </c>
@@ -16801,7 +16813,7 @@
     </row>
     <row r="538" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A538" s="4">
-        <f t="shared" ref="A538:A1143" si="1">A537+1</f>
+        <f t="shared" ref="A538:A1017" si="1">A537+1</f>
         <v>40912</v>
       </c>
       <c r="B538" s="6">
